--- a/PROJECT/PreciosValoracionesAirbnb/Excel Salidas/Madrid/averageRatingMadridNeighbourhoods.xlsx
+++ b/PROJECT/PreciosValoracionesAirbnb/Excel Salidas/Madrid/averageRatingMadridNeighbourhoods.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>neighbourhood_cleansed</t>
+          <t>neighbourhood</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -448,1271 +448,1271 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hellín</t>
+          <t>Valdemarín</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.58333333333333</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Palos de Moguer</t>
+          <t>Horcajo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.0954356846473</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Butarque</t>
+          <t>Hellín</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.45454545454545</v>
+        <v>98.58333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pacífico</t>
+          <t>Amposta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.20886075949367</v>
+        <v>98.22222222222223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rejas</t>
+          <t>Corralejos</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.37735849056604</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Universidad</t>
+          <t>Ambroz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.82299012693935</v>
+        <v>97.16666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Legazpi</t>
+          <t>Peñagrande</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.10526315789474</v>
+        <v>97.02702702702703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Casco Histórico de Vallecas</t>
+          <t>Campamento</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.24137931034483</v>
+        <v>96.94117647058823</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Goya</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.15228426395939</v>
+        <v>96.78571428571429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Casco Histórico de Barajas</t>
+          <t>Mirasierra</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.38709677419355</v>
+        <v>96.65384615384616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Media Legua</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.56521739130434</v>
+        <v>96.30769230769231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Castellana</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.76068376068376</v>
+        <v>96.1875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nueva España</t>
+          <t>Santa Eugenia</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.95555555555555</v>
+        <v>96.16666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ambroz</t>
+          <t>El Goloso</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.16666666666667</v>
+        <v>96.11111111111111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Valdefuentes</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.17647058823529</v>
+        <v>96.02702702702703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vista Alegre</t>
+          <t>Quintana</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.34285714285714</v>
+        <v>95.90789473684211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Recoletos</t>
+          <t>Arcos</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.2741935483871</v>
+        <v>95.85185185185185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Timón</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.88235294117646</v>
+        <v>95.62162162162163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Puerta del Angel</t>
+          <t>Butarque</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.28834355828221</v>
+        <v>95.45454545454545</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amposta</t>
+          <t>San Pascual</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.22222222222223</v>
+        <v>95.42307692307692</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Marroquina</t>
+          <t>San Juan Bautista</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.84615384615384</v>
+        <v>95.42105263157895</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jerónimos</t>
+          <t>Alameda de Osuna</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.48235294117647</v>
+        <v>95.31034482758621</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argüelles</t>
+          <t>El Viso</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94.42233009708738</v>
+        <v>95.03571428571429</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Numancia</t>
+          <t>Colina</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.1484375</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Palomeras Sureste</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.23684210526316</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>San Juan Bautista</t>
+          <t>Nueva España</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>95.42105263157895</v>
+        <v>94.95555555555555</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fontarrón</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.47368421052632</v>
+        <v>94.9375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ciudad Universitaria</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>94.48387096774194</v>
+        <v>94.88235294117646</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Portazgo</t>
+          <t>Aravaca</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>91.31999999999999</v>
+        <v>94.84848484848484</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aravaca</t>
+          <t>Marroquina</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.84848484848484</v>
+        <v>94.84615384615384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aeropuerto</t>
+          <t>Valverde</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.16666666666667</v>
+        <v>94.84482758620689</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Quintana</t>
+          <t>Pilar</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.90789473684211</v>
+        <v>94.72499999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Arcos</t>
+          <t>Castillejos</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.85185185185185</v>
+        <v>94.6063829787234</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Santa Eugenia</t>
+          <t>Simancas</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96.16666666666667</v>
+        <v>94.59649122807018</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Peñagrande</t>
+          <t>El Pardo</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.02702702702703</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Comillas</t>
+          <t>Ciudad Universitaria</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.42105263157895</v>
+        <v>94.48387096774194</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Campamento</t>
+          <t>Argüelles</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>96.94117647058823</v>
+        <v>94.42233009708738</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lista</t>
+          <t>Costillares</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>91.81132075471699</v>
+        <v>94.36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pueblo Nuevo</t>
+          <t>Zofío</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.61111111111111</v>
+        <v>94.28571428571429</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Simancas</t>
+          <t>Concepción</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>94.59649122807018</v>
+        <v>94.28070175438596</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Opañel</t>
+          <t>Entrevías</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>91.24657534246575</v>
+        <v>94.21875</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Entrevías</t>
+          <t>Casa de Campo</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.21875</v>
+        <v>94.2063492063492</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Piovera</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>92.95495495495496</v>
+        <v>94.14285714285714</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Valdeacederas</t>
+          <t>Almenara</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>92.5223880597015</v>
+        <v>93.93846153846154</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fuente del Berro</t>
+          <t>Niño Jesús</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.29885057471265</v>
+        <v>93.84848484848484</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>San Cristobal</t>
+          <t>Ventas</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>92.41666666666667</v>
+        <v>93.83185840707965</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Valverde</t>
+          <t>Pavones</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>94.84482758620689</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Abrantes</t>
+          <t>Canillas</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>91.2</v>
+        <v>93.77464788732394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>El Viso</t>
+          <t>Lucero</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>95.03571428571429</v>
+        <v>93.69642857142857</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Concepción</t>
+          <t>Chopera</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>94.28070175438596</v>
+        <v>93.64285714285714</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Casa de Campo</t>
+          <t>Atocha</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>94.2063492063492</v>
+        <v>93.63636363636364</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Arapiles</t>
+          <t>Cármenes</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>92.53543307086615</v>
+        <v>93.59375</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Ciudad Jardín</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>96.78571428571429</v>
+        <v>93.58064516129032</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Buenavista</t>
+          <t>Ibiza</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>96.02702702702703</v>
+        <v>93.57352941176471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Corralejos</t>
+          <t>Pinar del Rey</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98</v>
+        <v>93.50877192982456</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Casco Histórico de Vicálvaro</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>91.81263858093126</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bellas Vistas</t>
+          <t>Jerónimos</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>92.62745098039215</v>
+        <v>93.48235294117647</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Guindalera</t>
+          <t>Orcasitas</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>92.16867469879519</v>
+        <v>93.33333333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Berruguete</t>
+          <t>Palomas</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>91.79452054794521</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cármenes</t>
+          <t>Puerta del Angel</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>93.59375</v>
+        <v>93.28834355828221</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fuentelareina</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>88</v>
+        <v>93.23870967741935</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Rosas</t>
+          <t>Pacífico</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>91.25</v>
+        <v>93.20886075949367</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Trafalgar</t>
+          <t>Prosperidad</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>90.62008733624454</v>
+        <v>93.18691588785046</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Timón</t>
+          <t>Valdefuentes</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>95.62162162162163</v>
+        <v>93.17647058823529</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>San Fermín</t>
+          <t>Goya</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>92.68000000000001</v>
+        <v>93.15228426395939</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Castillejos</t>
+          <t>Numancia</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>94.6063829787234</v>
+        <v>93.1484375</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Almenara</t>
+          <t>Almendrales</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>93.93846153846154</v>
+        <v>93.13953488372093</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Chopera</t>
+          <t>Legazpi</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>93.64285714285714</v>
+        <v>93.10526315789474</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>San Andrés</t>
+          <t>Aluche</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>88.56</v>
+        <v>93.06896551724138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ibiza</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>93.57352941176471</v>
+        <v>92.95495495495496</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ventas</t>
+          <t>Rios Rosas</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>93.83185840707965</v>
+        <v>92.93162393162393</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>El Goloso</t>
+          <t>Moscardó</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>96.11111111111111</v>
+        <v>92.7090909090909</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Cuatro Caminos</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>94.9375</v>
+        <v>92.70289855072464</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Almendrales</t>
+          <t>Hispanoamérica</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>93.13953488372093</v>
+        <v>92.68852459016394</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Palacio</t>
+          <t>San Fermín</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>92.14148471615721</v>
+        <v>92.68000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mirasierra</t>
+          <t>Bellas Vistas</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>96.65384615384616</v>
+        <v>92.62745098039215</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Vallehermoso</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>92.03448275862068</v>
+        <v>92.61111111111111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gaztambide</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>92.11864406779661</v>
+        <v>92.56521739130434</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>El Plantío</t>
+          <t>Arapiles</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>83</v>
+        <v>92.53543307086615</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Justicia</t>
+          <t>Valdeacederas</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>92.16216216216216</v>
+        <v>92.5223880597015</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Piovera</t>
+          <t>Imperial</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>94.14285714285714</v>
+        <v>92.47916666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Los Rosales</t>
+          <t>Canillejas</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>87.40000000000001</v>
+        <v>92.46428571428571</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Costillares</t>
+          <t>Comillas</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>94.36</v>
+        <v>92.42105263157895</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Valdezarza</t>
+          <t>San Cristobal</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>91.5</v>
+        <v>92.41666666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Moscardó</t>
+          <t>Palomeras Bajas</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>92.7090909090909</v>
+        <v>92.39583333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Alameda de Osuna</t>
+          <t>Casco Histórico de Barajas</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>95.31034482758621</v>
+        <v>92.38709677419355</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>San Isidro</t>
+          <t>Vinateros</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>91.33333333333333</v>
+        <v>92.33333333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>San Pascual</t>
+          <t>Embajadores</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>95.42307692307692</v>
+        <v>92.28368017524645</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Pavones</t>
+          <t>Recoletos</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>93.8</v>
+        <v>92.2741935483871</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Colina</t>
+          <t>Casco Histórico de Vallecas</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>95</v>
+        <v>92.24137931034483</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cuatro Caminos</t>
+          <t>Pradolongo</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>92.70289855072464</v>
+        <v>92.22727272727273</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Castilla</t>
+          <t>Guindalera</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>92.125</v>
+        <v>92.16867469879519</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Puerta Bonita</t>
+          <t>Cortes</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>91.80392156862744</v>
+        <v>92.16347569955818</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Acacias</t>
+          <t>Justicia</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>92.15748031496064</v>
+        <v>92.16216216216216</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Canillejas</t>
+          <t>Acacias</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>92.46428571428571</v>
+        <v>92.15748031496064</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Rios Rosas</t>
+          <t>Palacio</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>92.93162393162393</v>
+        <v>92.14148471615721</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ciudad Jardín</t>
+          <t>Castilla</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>93.58064516129032</v>
+        <v>92.125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>La Paz</t>
+          <t>Gaztambide</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>96.1875</v>
+        <v>92.11864406779661</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Media Legua</t>
+          <t>Palos de Moguer</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>96.30769230769231</v>
+        <v>92.0954356846473</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Imperial</t>
+          <t>Vallehermoso</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>92.47916666666667</v>
+        <v>92.03448275862068</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Pilar</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>94.72499999999999</v>
+        <v>91.82299012693935</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Palomeras Bajas</t>
+          <t>Sol</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>92.39583333333333</v>
+        <v>91.81263858093126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Adelfas</t>
+          <t>Lista</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>88.28813559322033</v>
+        <v>91.81132075471699</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cuatro Vientos</t>
+          <t>Puerta Bonita</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>85.15384615384616</v>
+        <v>91.80392156862744</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Palomas</t>
+          <t>Berruguete</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>93.3</v>
+        <v>91.79452054794521</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Apostol Santiago</t>
+          <t>Castellana</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>87.07692307692308</v>
+        <v>91.76068376068376</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Prosperidad</t>
+          <t>Valdezarza</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>93.18691588785046</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Pinar del Rey</t>
+          <t>San Isidro</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>93.50877192982456</v>
+        <v>91.33333333333333</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Palomeras Sureste</t>
+          <t>Portazgo</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>95</v>
+        <v>91.31999999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Cortes</t>
+          <t>Rosas</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>92.16347569955818</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Niño Jesús</t>
+          <t>Opañel</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>93.84848484848484</v>
+        <v>91.24657534246575</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Aluche</t>
+          <t>Abrantes</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>93.06896551724138</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Canillas</t>
+          <t>Trafalgar</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>93.77464788732394</v>
+        <v>90.62008733624454</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>El Pardo</t>
+          <t>Vista Alegre</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>94.5</v>
+        <v>90.34285714285714</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Orcasitas</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>93.33333333333333</v>
+        <v>90.23684210526316</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Embajadores</t>
+          <t>Aeropuerto</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>92.28368017524645</v>
+        <v>90.16666666666667</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Atocha</t>
+          <t>Fontarrón</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>93.63636363636364</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Casco Histórico de Vicálvaro</t>
+          <t>Rejas</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>93.5</v>
+        <v>89.37735849056604</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Zofío</t>
+          <t>Fuente del Berro</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>94.28571428571429</v>
+        <v>89.29885057471265</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hispanoamérica</t>
+          <t>San Andrés</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>92.68852459016394</v>
+        <v>88.56</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Orcasur</t>
+          <t>Adelfas</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>88.05</v>
+        <v>88.28813559322033</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Vinateros</t>
+          <t>Orcasur</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>92.33333333333333</v>
+        <v>88.05</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lucero</t>
+          <t>Fuentelareina</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>93.69642857142857</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Delicias</t>
+          <t>Los Rosales</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>93.23870967741935</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Pradolongo</t>
+          <t>Apostol Santiago</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>92.22727272727273</v>
+        <v>87.07692307692308</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Valdemarín</t>
+          <t>Cuatro Vientos</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>100</v>
+        <v>85.15384615384616</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Horcajo</t>
+          <t>El Plantío</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
